--- a/src/test/document/ms-api-1.1.0功能模块一览_20170419.xlsx
+++ b/src/test/document/ms-api-1.1.0功能模块一览_20170419.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块一览" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>番号</t>
   </si>
@@ -84,55 +84,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>异常对应http状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring异步消息JMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMQP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring shrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring Serurity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http接口管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>异常对应http状态码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spring的文件上传下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spring的消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spring异步消息JMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMQP</t>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http接口(get)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,23 +173,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spring缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spring的认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring shrio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring Serurity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +619,8 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -673,7 +690,9 @@
       <c r="H2" s="5">
         <v>42741</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -698,7 +717,9 @@
       <c r="H3" s="5">
         <v>42741</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -739,7 +760,9 @@
       <c r="H5" s="5">
         <v>42741</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -753,18 +776,20 @@
         <v>日志管理</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5">
         <v>42741</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -791,21 +816,23 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5">
         <v>42741</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -832,10 +859,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -873,10 +900,10 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -901,13 +928,13 @@
         <v>#REF!</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
@@ -920,16 +947,16 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5">
         <v>42741</v>
@@ -948,13 +975,13 @@
         <v>#REF!</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
@@ -967,16 +994,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16" s="5">
         <v>42741</v>
@@ -1008,16 +1035,16 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H18" s="5">
         <v>42741</v>
@@ -1036,13 +1063,13 @@
         <v>#REF!</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
